--- a/biology/Botanique/Saprolegniaceae/Saprolegniaceae.xlsx
+++ b/biology/Botanique/Saprolegniaceae/Saprolegniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les micro-organismes faisant partie de la famille des Saprolegniaceae sont des moisissures notamment connus pour être de forts pathogènes pour les plantes, les poissons ainsi que les crustacés.
 La famille des Saprolegniaceae est la plus grande famille de l’ordre des Saprolegniales possédant lui-même près de 19 genres d’organismes et plus de 150 espèces différentes.
@@ -515,7 +527,9 @@
           <t>Hyphe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'une des principales caractéristiques des champignons est la production de longues cellules tubulaires, les hyphes, qui se prolongent par un processus de croissance apicale. Les mécanismes cellulaires responsables de la croissance apicale semblent être les mêmes à travers les champignons malgré leur origine évolutive différente.
 Dans la croissance apicale, il y a un fort gradient de cellule, la croissance maximale se produit au pôle apical et diminue rapidement vers la région subapicale. La formation de la paroi cellulaire est un processus basé sur des vésicules contenant des enzymes et des précurseurs nécessaires à la formation de la paroi cellulaire, qui sont ainsi sécrétés dans les zones de croissance. La croissance apicale implique une transformation de la surface de la paroi cellulaire, fortement incurvée de la pointe des hyphes.
@@ -547,7 +561,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d’observations microscopiques, les moisissures d'eau apparaissent comme des filaments siphonaux mais leur identification exacte nécessite la préparation de cultures pures. La plupart des genres peuvent être distingués par leur appareil de multiplication asexuée et le mode de libération des zoospores ; la différenciation des espèces est beaucoup plus difficile à réaliser car elle nécessite la description précise des organes sexuels, y compris la présence ou l'absence de spermatocyste (gamétocyste mâle), l'origine des branches des spermatocystes, l'ornementation des oogones, la taille des oospores et la position des gouttelettes lipidiques dans les oospores.
 </t>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (6 mars 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (6 mars 2021) :
 genre Achlya
 genre Aphanomyces
 genre Brevilegnia
@@ -590,7 +608,7 @@
 genre Leptolegnia De Bary, 1888
 genre Saprolegnia
 genre Sommerstorffia Arnaudow, 1923
-Selon MycoBank                                            (6 mars 2021)[3] :
+Selon MycoBank                                            (6 mars 2021) :
 Achlya
 Aplanes
 Aplanopsis
@@ -613,7 +631,7 @@
 Pringsheimina
 Protoachlya
 Pythiopsis
-Saprolegnia[4],[5],[6],[7],[8]
+Saprolegnia
 Scoliolegnia
 Sommerstorffia
 Thraustotheca</t>
